--- a/steamcase/user/userOrderActivitycase.xlsx
+++ b/steamcase/user/userOrderActivitycase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BA026F9A-F2DF-4E4F-B9BA-354A759415F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
@@ -54,15 +55,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户点赞文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>userOrderActivity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"title":"早鸟价！呼伦贝尔｜私家牧场任你驰骋策马，原始森林徒步猎奇"
+    <t>/order-service/order/submitAndPay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_sub_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户下单活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"keyword":"早鸟价"
 "skuName":"价格（成人）"
 "phoneNo":"18916899938"
 "resourceTypeId":12
@@ -71,19 +80,11 @@
 "num":1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>/order-service/order/submitAndPay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_sub_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,11 +453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -499,20 +500,20 @@
     </row>
     <row r="2" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/user/userOrderActivitycase.xlsx
+++ b/steamcase/user/userOrderActivitycase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BA026F9A-F2DF-4E4F-B9BA-354A759415F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A8BF4192-ABC5-4183-AF76-99177764E343}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户下单活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"keyword":"早鸟价"
 "skuName":"价格（成人）"
 "phoneNo":"18916899938"
@@ -78,6 +74,10 @@
 "skuId":1
 "resourceId":1
 "num":1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户购买下单活动成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,14 +506,14 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/user/userOrderActivitycase.xlsx
+++ b/steamcase/user/userOrderActivitycase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{02684B12-91B5-4413-A3E1-F2764A70DA76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{219FFD94-5E29-41F0-B84C-71E30EAFB119}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>caseid</t>
   </si>
@@ -78,6 +78,24 @@
   </si>
   <si>
     <t>/order-service/order/submitAndPay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户购买下单商品成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_sub_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"keyword":"创客教育儿童早教学习"
+"skuName":"体验课"
+"phoneNo":"18916899938"
+"resourceTypeId":11
+"skuId":1
+"resourceId":1
+"num":1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,6 +537,27 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/steamcase/user/userOrderActivitycase.xlsx
+++ b/steamcase/user/userOrderActivitycase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{219FFD94-5E29-41F0-B84C-71E30EAFB119}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B7045093-BD1B-48B8-9AFD-84340634EB61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/steamcase/user/userOrderActivitycase.xlsx
+++ b/steamcase/user/userOrderActivitycase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B7045093-BD1B-48B8-9AFD-84340634EB61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{534E6AB1-9619-4ED2-B25B-8B0039AEED4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"keyword":"早鸟价"
+    <t>用户购买下单活动成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order-service/order/submitAndPay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户购买下单商品成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_sub_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"keyword":"早鸟价接口自动化"
 "skuName":"价格（成人）"
 "phoneNo":"18916899938"
 "resourceTypeId":12
@@ -73,23 +89,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户购买下单活动成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/order-service/order/submitAndPay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户购买下单商品成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_sub_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"keyword":"创客教育儿童早教学习"
+    <t>"keyword":"创客教育儿童早教学习接口自动化"
 "skuName":"体验课"
 "phoneNo":"18916899938"
 "resourceTypeId":11
@@ -475,7 +475,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,17 +521,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -539,13 +539,13 @@
     </row>
     <row r="3" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
